--- a/GSC_ FunctionalTestCase_v1.0.xlsx
+++ b/GSC_ FunctionalTestCase_v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cuong Ngo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TestCase List" sheetId="1" r:id="rId3"/>
     <sheet name="Manage question" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1799,6 +1799,24 @@
     <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1889,15 +1907,6 @@
     <xf numFmtId="0" fontId="20" fillId="6" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1913,76 +1922,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2291,48 +2291,48 @@
   <sheetData>
     <row r="1" spans="1:14" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:14" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="46" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="18"/>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="30"/>
       <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="18"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="32"/>
       <c r="N3" s="31"/>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -2343,12 +2343,12 @@
       <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -2360,55 +2360,55 @@
     </row>
     <row r="6" spans="1:14" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:14" ht="27" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="68"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="74"/>
     </row>
     <row r="8" spans="1:14" ht="27" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="69" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="69" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="70"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="10">
         <v>1</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="59">
         <v>42298</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55" t="s">
+      <c r="D9" s="60"/>
+      <c r="E9" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="57" t="s">
+      <c r="F9" s="62"/>
+      <c r="G9" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="59"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="35"/>
@@ -2435,23 +2435,23 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="41"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -2466,12 +2466,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
     </row>
@@ -2493,6 +2493,7 @@
     <row r="35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E8:F8"/>
     <mergeCell ref="G8:J8"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="B12:H12"/>
@@ -2509,7 +2510,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B7:J7"/>
     <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2534,14 +2534,14 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:3" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="2:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19" t="s">
@@ -2686,10 +2686,10 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="77" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="77" t="s">
         <v>142</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -2703,8 +2703,8 @@
       <c r="A3" s="11">
         <v>2</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="17" t="s">
         <v>150</v>
       </c>
@@ -2716,8 +2716,8 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="17" t="s">
         <v>151</v>
       </c>
@@ -2729,8 +2729,8 @@
       <c r="A5" s="11">
         <v>4</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="78"/>
+      <c r="C5" s="77" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="17" t="s">
@@ -2744,8 +2744,8 @@
       <c r="A6" s="11">
         <v>5</v>
       </c>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="17" t="s">
         <v>155</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="75"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="26" t="s">
         <v>144</v>
       </c>
@@ -2770,7 +2770,7 @@
       <c r="A8" s="11">
         <v>7</v>
       </c>
-      <c r="B8" s="75"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="26" t="s">
         <v>145</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="75"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="26" t="s">
         <v>146</v>
       </c>
@@ -2796,7 +2796,7 @@
       <c r="A10" s="11">
         <v>9</v>
       </c>
-      <c r="B10" s="75"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="26" t="s">
         <v>147</v>
       </c>
@@ -2809,8 +2809,8 @@
       <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="74" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="77" t="s">
         <v>148</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -2822,8 +2822,8 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
       <c r="D12" s="17" t="s">
         <v>164</v>
       </c>
@@ -2833,8 +2833,8 @@
       <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="17" t="s">
         <v>165</v>
       </c>
@@ -3055,7 +3055,7 @@
   <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3071,53 +3071,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="98" t="s">
+      <c r="E1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="98" t="s">
+      <c r="G1" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="100" t="s">
+      <c r="K1" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="157.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78">
+      <c r="A2" s="89">
         <v>1</v>
       </c>
-      <c r="B2" s="77" t="str">
-        <f>'TestCase List'!D2</f>
-        <v>TC.ADD.QUESTION.01</v>
-      </c>
-      <c r="C2" s="77" t="str">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90" t="str">
         <f>'TestCase List'!E2</f>
         <v>Add question as the happy path</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E2" s="16" t="s">
@@ -3126,235 +3123,235 @@
       <c r="F2" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="81">
+      <c r="H2" s="93">
         <v>42339</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="79"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="78"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="85"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="92"/>
       <c r="E3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="79"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="85"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="92"/>
       <c r="E4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="79"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="94"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="78"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="85"/>
+      <c r="A5" s="89"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="92"/>
       <c r="E5" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="79"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="94"/>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="85"/>
+      <c r="A6" s="89"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="92"/>
       <c r="E6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="94"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="78"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="85"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="79"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="94"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="78"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="85"/>
+      <c r="A8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="79"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="94"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="78"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="85"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="5" t="s">
         <v>97</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="79"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="94"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="78"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="92"/>
       <c r="E10" s="5" t="s">
         <v>69</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="78"/>
-      <c r="K10" s="79"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="94"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="78"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="85"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="5" t="s">
         <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="79"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="94"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="78"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="85"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="92"/>
       <c r="E12" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="79"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="94"/>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="78"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="85"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="92"/>
       <c r="E13" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="79"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="94"/>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="78"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="85"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="92"/>
       <c r="E14" s="16" t="s">
         <v>72</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="79"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="78">
+      <c r="A15" s="89">
         <v>2</v>
       </c>
-      <c r="B15" s="77" t="str">
+      <c r="B15" s="90" t="str">
         <f>'TestCase List'!D3</f>
         <v>TC.ADD.QUESTION.02</v>
       </c>
-      <c r="C15" s="77" t="str">
+      <c r="C15" s="90" t="str">
         <f>'TestCase List'!E3</f>
         <v>Add question but leave blank at any information field</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="91" t="s">
         <v>112</v>
       </c>
       <c r="E15" s="21" t="s">
@@ -3363,233 +3360,233 @@
       <c r="F15" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="78" t="s">
+      <c r="G15" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="81">
+      <c r="H15" s="93">
         <v>42339</v>
       </c>
-      <c r="I15" s="82" t="s">
+      <c r="I15" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="79"/>
+      <c r="K15" s="94"/>
     </row>
     <row r="16" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="78"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="80"/>
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="79"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="94"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="78"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="80"/>
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91"/>
       <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="79"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="94"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="78"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="80"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="94"/>
     </row>
     <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="80"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="79"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="94"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="80"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="79"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="80"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="79"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="94"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="78"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="80"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="79"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="94"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="78"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="80"/>
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91"/>
       <c r="E23" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="83"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="78"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="80"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91"/>
       <c r="E24" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="83"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="79"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="94"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="80"/>
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91"/>
       <c r="E25" s="5" t="s">
         <v>103</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="79"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="94"/>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="80"/>
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91"/>
       <c r="E26" s="5" t="s">
         <v>71</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="79"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="94"/>
     </row>
     <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="78"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="80"/>
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="79"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="94"/>
     </row>
     <row r="28" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="89">
+      <c r="A28" s="80">
         <v>3</v>
       </c>
-      <c r="B28" s="74" t="str">
+      <c r="B28" s="77" t="str">
         <f>'TestCase List'!D4</f>
         <v>TC.ADD.QUESTION.03</v>
       </c>
-      <c r="C28" s="74" t="str">
+      <c r="C28" s="77" t="str">
         <f>'TestCase List'!E4</f>
         <v>Add question but create new catalogue</v>
       </c>
-      <c r="D28" s="90" t="s">
+      <c r="D28" s="95" t="s">
         <v>112</v>
       </c>
       <c r="E28" s="21" t="s">
@@ -3598,201 +3595,201 @@
       <c r="F28" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="89" t="s">
+      <c r="G28" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="86">
+      <c r="H28" s="83">
         <v>42339</v>
       </c>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="74" t="s">
+      <c r="J28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K28" s="89"/>
+      <c r="K28" s="80"/>
     </row>
     <row r="29" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="91"/>
+      <c r="A29" s="81"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="98"/>
       <c r="E29" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F29" s="16"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="87"/>
-      <c r="B30" s="75"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="91"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:11" ht="171" x14ac:dyDescent="0.2">
-      <c r="A31" s="87"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="91"/>
+      <c r="A31" s="81"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="98"/>
       <c r="E31" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A32" s="87"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="91"/>
+      <c r="A32" s="81"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="98"/>
       <c r="E32" s="16" t="s">
         <v>84</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="87"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="91"/>
+      <c r="A33" s="81"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="98"/>
       <c r="E33" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="87"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="91"/>
+      <c r="A34" s="81"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="98"/>
       <c r="E34" s="5" t="s">
         <v>73</v>
       </c>
       <c r="F34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="87"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="91"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="98"/>
       <c r="E35" s="5" t="s">
         <v>102</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="87"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="87"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="98"/>
       <c r="E36" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="87"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
     </row>
     <row r="37" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="87"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="91"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="98"/>
       <c r="E37" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
-      <c r="J37" s="87"/>
-      <c r="K37" s="87"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
     </row>
     <row r="38" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="88"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="92"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="99"/>
       <c r="E38" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F38" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
+      <c r="G38" s="82"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="82"/>
     </row>
     <row r="39" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="89">
+      <c r="A39" s="80">
         <v>4</v>
       </c>
-      <c r="B39" s="74" t="str">
+      <c r="B39" s="77" t="str">
         <f>'TestCase List'!D5</f>
         <v>TC.EDIT.QUESTION.01</v>
       </c>
-      <c r="C39" s="74" t="str">
+      <c r="C39" s="77" t="str">
         <f>'TestCase List'!E5</f>
         <v>Edit question as the happy path</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="95" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="16" t="s">
@@ -3801,186 +3798,186 @@
       <c r="F39" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G39" s="89" t="s">
+      <c r="G39" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="86">
+      <c r="H39" s="83">
         <v>42339</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K39" s="89"/>
+      <c r="K39" s="80"/>
     </row>
     <row r="40" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="87"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="91"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="98"/>
       <c r="E40" s="16" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="87"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="87"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="91"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="98"/>
       <c r="E41" s="16" t="s">
         <v>104</v>
       </c>
       <c r="F41" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
     </row>
     <row r="42" spans="1:11" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="87"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="91"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="98"/>
       <c r="E42" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F42" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="87"/>
-      <c r="H42" s="87"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="87"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="91"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="98"/>
       <c r="E43" s="5" t="s">
         <v>109</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="87"/>
-      <c r="K43" s="87"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="87"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="91"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="78"/>
+      <c r="C44" s="78"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G44" s="87"/>
-      <c r="H44" s="87"/>
-      <c r="I44" s="87"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="81"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="87"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="91"/>
+      <c r="A45" s="81"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="98"/>
       <c r="E45" s="5" t="s">
         <v>110</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="87"/>
-      <c r="H45" s="87"/>
-      <c r="I45" s="87"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="81"/>
+      <c r="I45" s="81"/>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="87"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="91"/>
+      <c r="A46" s="81"/>
+      <c r="B46" s="78"/>
+      <c r="C46" s="78"/>
+      <c r="D46" s="98"/>
       <c r="E46" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="87"/>
-      <c r="H46" s="87"/>
-      <c r="I46" s="87"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
     </row>
     <row r="47" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="87"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="75"/>
-      <c r="D47" s="91"/>
+      <c r="A47" s="81"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="98"/>
       <c r="E47" s="5" t="s">
         <v>77</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="87"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="81"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
     </row>
     <row r="48" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="88"/>
-      <c r="B48" s="76"/>
-      <c r="C48" s="76"/>
-      <c r="D48" s="92"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F48" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="88"/>
-      <c r="K48" s="88"/>
+      <c r="G48" s="82"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="82"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
     </row>
     <row r="49" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="89">
+      <c r="A49" s="80">
         <v>5</v>
       </c>
-      <c r="B49" s="74" t="str">
+      <c r="B49" s="77" t="str">
         <f>'TestCase List'!D6</f>
         <v>TC.EDIT.QUESTION.02</v>
       </c>
-      <c r="C49" s="74" t="str">
+      <c r="C49" s="77" t="str">
         <f>'TestCase List'!E6</f>
         <v>Edit question but leave blank at any information field</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="95" t="s">
         <v>114</v>
       </c>
       <c r="E49" s="16" t="s">
@@ -3989,24 +3986,24 @@
       <c r="F49" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G49" s="89" t="s">
+      <c r="G49" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="86">
+      <c r="H49" s="83">
         <v>42339</v>
       </c>
-      <c r="I49" s="74" t="s">
+      <c r="I49" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="J49" s="74" t="s">
+      <c r="J49" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="K49" s="93"/>
+      <c r="K49" s="86"/>
     </row>
     <row r="50" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="87"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="75"/>
+      <c r="A50" s="81"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
       <c r="D50" s="96"/>
       <c r="E50" s="4" t="s">
         <v>90</v>
@@ -4014,16 +4011,16 @@
       <c r="F50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G50" s="87"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="94"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="84"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="87"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="87"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="75"/>
+      <c r="A51" s="81"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
       <c r="D51" s="96"/>
       <c r="E51" s="5" t="s">
         <v>17</v>
@@ -4031,31 +4028,31 @@
       <c r="F51" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G51" s="87"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="94"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="87"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="87"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="75"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="96"/>
       <c r="E52" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="94"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="81"/>
+      <c r="J52" s="81"/>
+      <c r="K52" s="87"/>
     </row>
     <row r="53" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="87"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="78"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="96"/>
       <c r="E53" s="6" t="s">
         <v>32</v>
@@ -4063,16 +4060,16 @@
       <c r="F53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G53" s="87"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="94"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="87"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="87"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="75"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="96"/>
       <c r="E54" s="6" t="s">
         <v>18</v>
@@ -4080,16 +4077,16 @@
       <c r="F54" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G54" s="87"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="87"/>
-      <c r="J54" s="87"/>
-      <c r="K54" s="94"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="81"/>
+      <c r="J54" s="81"/>
+      <c r="K54" s="87"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="87"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="96"/>
       <c r="E55" s="6" t="s">
         <v>95</v>
@@ -4097,16 +4094,16 @@
       <c r="F55" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G55" s="87"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="87"/>
-      <c r="K55" s="94"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="81"/>
+      <c r="J55" s="81"/>
+      <c r="K55" s="87"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="87"/>
-      <c r="B56" s="75"/>
-      <c r="C56" s="75"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="96"/>
       <c r="E56" s="5" t="s">
         <v>97</v>
@@ -4114,16 +4111,16 @@
       <c r="F56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G56" s="87"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="94"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="81"/>
+      <c r="J56" s="81"/>
+      <c r="K56" s="87"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="87"/>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="78"/>
       <c r="D57" s="96"/>
       <c r="E57" s="5" t="s">
         <v>82</v>
@@ -4131,16 +4128,16 @@
       <c r="F57" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="87"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="87"/>
-      <c r="K57" s="94"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="84"/>
+      <c r="I57" s="81"/>
+      <c r="J57" s="81"/>
+      <c r="K57" s="87"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="87"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
+      <c r="A58" s="81"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
       <c r="D58" s="96"/>
       <c r="E58" s="5" t="s">
         <v>111</v>
@@ -4148,16 +4145,16 @@
       <c r="F58" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G58" s="87"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="94"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="84"/>
+      <c r="I58" s="81"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="87"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="87"/>
-      <c r="B59" s="75"/>
-      <c r="C59" s="75"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="78"/>
+      <c r="C59" s="78"/>
       <c r="D59" s="96"/>
       <c r="E59" s="5" t="s">
         <v>70</v>
@@ -4165,16 +4162,16 @@
       <c r="F59" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G59" s="87"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="94"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="84"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="87"/>
     </row>
     <row r="60" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="87"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="75"/>
+      <c r="A60" s="81"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
       <c r="D60" s="96"/>
       <c r="E60" s="5" t="s">
         <v>83</v>
@@ -4182,16 +4179,16 @@
       <c r="F60" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="87"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="94"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="84"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="87"/>
     </row>
     <row r="61" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="88"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="97"/>
       <c r="E61" s="16" t="s">
         <v>81</v>
@@ -4199,25 +4196,25 @@
       <c r="F61" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G61" s="88"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="88"/>
-      <c r="J61" s="88"/>
-      <c r="K61" s="95"/>
+      <c r="G61" s="82"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="82"/>
+      <c r="J61" s="82"/>
+      <c r="K61" s="88"/>
     </row>
     <row r="62" spans="1:11" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="78">
+      <c r="A62" s="89">
         <v>6</v>
       </c>
-      <c r="B62" s="77" t="e">
+      <c r="B62" s="90" t="e">
         <f>'TestCase List'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="C62" s="77" t="e">
+      <c r="C62" s="90" t="e">
         <f>'TestCase List'!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D62" s="80" t="s">
+      <c r="D62" s="91" t="s">
         <v>115</v>
       </c>
       <c r="E62" s="21" t="s">
@@ -4226,221 +4223,221 @@
       <c r="F62" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="G62" s="78" t="s">
+      <c r="G62" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="H62" s="81">
+      <c r="H62" s="93">
         <v>42339</v>
       </c>
-      <c r="I62" s="77" t="s">
+      <c r="I62" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="J62" s="77" t="s">
+      <c r="J62" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="K62" s="79"/>
+      <c r="K62" s="94"/>
     </row>
     <row r="63" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="78"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="85"/>
+      <c r="A63" s="89"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="92"/>
       <c r="E63" s="4" t="s">
         <v>92</v>
       </c>
       <c r="F63" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G63" s="78"/>
-      <c r="H63" s="78"/>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78"/>
-      <c r="K63" s="79"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="94"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="78"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="85"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="92"/>
       <c r="E64" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-      <c r="J64" s="78"/>
-      <c r="K64" s="79"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="94"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A65" s="78"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="85"/>
+      <c r="A65" s="89"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="92"/>
       <c r="E65" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F65" s="6"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-      <c r="J65" s="78"/>
-      <c r="K65" s="79"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="94"/>
     </row>
     <row r="66" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="78"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="85"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="92"/>
       <c r="E66" s="6" t="s">
         <v>94</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="79"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="94"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A67" s="78"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="85"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="92"/>
       <c r="E67" s="6" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-      <c r="J67" s="78"/>
-      <c r="K67" s="79"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="94"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A68" s="78"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="77"/>
-      <c r="D68" s="85"/>
+      <c r="A68" s="89"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="92"/>
       <c r="E68" s="6" t="s">
         <v>95</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-      <c r="J68" s="78"/>
-      <c r="K68" s="79"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="94"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A69" s="78"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="77"/>
-      <c r="D69" s="85"/>
+      <c r="A69" s="89"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="92"/>
       <c r="E69" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="78"/>
-      <c r="K69" s="79"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="94"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A70" s="78"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="85"/>
+      <c r="A70" s="89"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="92"/>
       <c r="E70" s="5" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-      <c r="J70" s="78"/>
-      <c r="K70" s="79"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="94"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A71" s="78"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="85"/>
+      <c r="A71" s="89"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="92"/>
       <c r="E71" s="5" t="s">
         <v>101</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-      <c r="J71" s="78"/>
-      <c r="K71" s="79"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="94"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A72" s="78"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="85"/>
+      <c r="A72" s="89"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="90"/>
+      <c r="D72" s="92"/>
       <c r="E72" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-      <c r="J72" s="78"/>
-      <c r="K72" s="79"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="94"/>
     </row>
     <row r="73" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="78"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="85"/>
+      <c r="A73" s="89"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="92"/>
       <c r="E73" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-      <c r="J73" s="78"/>
-      <c r="K73" s="79"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="94"/>
     </row>
     <row r="74" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="78"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="85"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="92"/>
       <c r="E74" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-      <c r="J74" s="78"/>
-      <c r="K74" s="79"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="94"/>
     </row>
     <row r="75" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
@@ -4479,26 +4476,24 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="G49:G61"/>
-    <mergeCell ref="H49:H61"/>
-    <mergeCell ref="I49:I61"/>
-    <mergeCell ref="J49:J61"/>
-    <mergeCell ref="K49:K61"/>
-    <mergeCell ref="A62:A74"/>
-    <mergeCell ref="B62:B74"/>
-    <mergeCell ref="C62:C74"/>
-    <mergeCell ref="D62:D74"/>
-    <mergeCell ref="G62:G74"/>
-    <mergeCell ref="H62:H74"/>
-    <mergeCell ref="I62:I74"/>
-    <mergeCell ref="J62:J74"/>
-    <mergeCell ref="K62:K74"/>
-    <mergeCell ref="D49:D61"/>
-    <mergeCell ref="A49:A61"/>
-    <mergeCell ref="B49:B61"/>
-    <mergeCell ref="C49:C61"/>
-    <mergeCell ref="H28:H38"/>
-    <mergeCell ref="I28:I38"/>
+    <mergeCell ref="D2:D14"/>
+    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="J2:J14"/>
+    <mergeCell ref="K2:K14"/>
+    <mergeCell ref="A15:A27"/>
+    <mergeCell ref="B15:B27"/>
+    <mergeCell ref="C15:C27"/>
+    <mergeCell ref="D15:D27"/>
+    <mergeCell ref="G15:G27"/>
+    <mergeCell ref="H15:H27"/>
+    <mergeCell ref="I15:I27"/>
+    <mergeCell ref="J15:J27"/>
+    <mergeCell ref="K15:K27"/>
+    <mergeCell ref="H2:H14"/>
+    <mergeCell ref="I2:I14"/>
+    <mergeCell ref="A2:A14"/>
+    <mergeCell ref="B2:B14"/>
+    <mergeCell ref="C2:C14"/>
     <mergeCell ref="J28:J38"/>
     <mergeCell ref="K28:K38"/>
     <mergeCell ref="A39:A48"/>
@@ -4515,24 +4510,26 @@
     <mergeCell ref="A28:A38"/>
     <mergeCell ref="B28:B38"/>
     <mergeCell ref="C28:C38"/>
-    <mergeCell ref="J2:J14"/>
-    <mergeCell ref="K2:K14"/>
-    <mergeCell ref="A15:A27"/>
-    <mergeCell ref="B15:B27"/>
-    <mergeCell ref="C15:C27"/>
-    <mergeCell ref="D15:D27"/>
-    <mergeCell ref="G15:G27"/>
-    <mergeCell ref="H15:H27"/>
-    <mergeCell ref="I15:I27"/>
-    <mergeCell ref="J15:J27"/>
-    <mergeCell ref="K15:K27"/>
-    <mergeCell ref="H2:H14"/>
-    <mergeCell ref="I2:I14"/>
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="B2:B14"/>
-    <mergeCell ref="C2:C14"/>
-    <mergeCell ref="D2:D14"/>
-    <mergeCell ref="G2:G14"/>
+    <mergeCell ref="A49:A61"/>
+    <mergeCell ref="B49:B61"/>
+    <mergeCell ref="C49:C61"/>
+    <mergeCell ref="H28:H38"/>
+    <mergeCell ref="I28:I38"/>
+    <mergeCell ref="H62:H74"/>
+    <mergeCell ref="I62:I74"/>
+    <mergeCell ref="J62:J74"/>
+    <mergeCell ref="K62:K74"/>
+    <mergeCell ref="D49:D61"/>
+    <mergeCell ref="A62:A74"/>
+    <mergeCell ref="B62:B74"/>
+    <mergeCell ref="C62:C74"/>
+    <mergeCell ref="D62:D74"/>
+    <mergeCell ref="G62:G74"/>
+    <mergeCell ref="G49:G61"/>
+    <mergeCell ref="H49:H61"/>
+    <mergeCell ref="I49:I61"/>
+    <mergeCell ref="J49:J61"/>
+    <mergeCell ref="K49:K61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
